--- a/breeding_patterns - win, sum/all F1 mice/Seasonal_Births_ BW _ 5 yr.xlsx
+++ b/breeding_patterns - win, sum/all F1 mice/Seasonal_Births_ BW _ 5 yr.xlsx
@@ -17,40 +17,40 @@
     <t xml:space="preserve">BirthSeason</t>
   </si>
   <si>
-    <t xml:space="preserve">1964-1968</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1969-1973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1974-1978</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1979-1983</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1984-1988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1989-1993</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1994-1998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1999-2003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2004-2008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2009-2013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2014-2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2019-2023</t>
+    <t xml:space="preserve">1963-1967</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1968-1972</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1973-1977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1978-1982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1983-1987</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1988-1992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1993-1997</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1998-2002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2003-2007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2008-2012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2013-2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-2022</t>
   </si>
   <si>
     <t xml:space="preserve">Summer</t>
@@ -434,40 +434,40 @@
         <v>13</v>
       </c>
       <c r="B2" t="n">
-        <v>1387</v>
+        <v>1352</v>
       </c>
       <c r="C2" t="n">
-        <v>2166</v>
+        <v>2081</v>
       </c>
       <c r="D2" t="n">
-        <v>1295</v>
+        <v>1091</v>
       </c>
       <c r="E2" t="n">
-        <v>841</v>
+        <v>1054</v>
       </c>
       <c r="F2" t="n">
-        <v>1371</v>
+        <v>1353</v>
       </c>
       <c r="G2" t="n">
-        <v>1970</v>
+        <v>1797</v>
       </c>
       <c r="H2" t="n">
-        <v>1690</v>
+        <v>1819</v>
       </c>
       <c r="I2" t="n">
-        <v>1846</v>
+        <v>1738</v>
       </c>
       <c r="J2" t="n">
-        <v>1478</v>
+        <v>1567</v>
       </c>
       <c r="K2" t="n">
-        <v>1281</v>
+        <v>1392</v>
       </c>
       <c r="L2" t="n">
-        <v>1776</v>
+        <v>1319</v>
       </c>
       <c r="M2" t="n">
-        <v>1260</v>
+        <v>1677</v>
       </c>
     </row>
     <row r="3">
@@ -475,40 +475,40 @@
         <v>14</v>
       </c>
       <c r="B3" t="n">
-        <v>1033</v>
+        <v>863</v>
       </c>
       <c r="C3" t="n">
-        <v>2339</v>
+        <v>2283</v>
       </c>
       <c r="D3" t="n">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="E3" t="n">
-        <v>822</v>
+        <v>923</v>
       </c>
       <c r="F3" t="n">
-        <v>1505</v>
+        <v>1369</v>
       </c>
       <c r="G3" t="n">
-        <v>1849</v>
+        <v>1557</v>
       </c>
       <c r="H3" t="n">
-        <v>1552</v>
+        <v>1760</v>
       </c>
       <c r="I3" t="n">
-        <v>1869</v>
+        <v>1896</v>
       </c>
       <c r="J3" t="n">
-        <v>1264</v>
+        <v>1387</v>
       </c>
       <c r="K3" t="n">
-        <v>1323</v>
+        <v>1251</v>
       </c>
       <c r="L3" t="n">
-        <v>1605</v>
+        <v>1443</v>
       </c>
       <c r="M3" t="n">
-        <v>1378</v>
+        <v>1635</v>
       </c>
     </row>
   </sheetData>
